--- a/diario.xlsx
+++ b/diario.xlsx
@@ -72,8 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -249,13 +250,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -274,9 +276,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
@@ -566,18 +571,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.625" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
@@ -607,25 +613,25 @@
       </c>
       <c r="H1" s="9">
         <f>E2*$B2</f>
-        <v>1.9121279999999998</v>
+        <v>17.663999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
-        <v>4.33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9">
         <f>C2*3.2</f>
-        <v>0.41567999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="C2" s="9">
         <f>A2*0.03</f>
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="D2" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="16">
         <v>3.6</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="17">
         <f>D2+1</f>
         <v>4.5999999999999996</v>
       </c>
@@ -634,7 +640,7 @@
       </c>
       <c r="H2" s="9">
         <f>$E$2*H1</f>
-        <v>8.7957887999999986</v>
+        <v>81.25439999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
@@ -643,7 +649,7 @@
       </c>
       <c r="H3" s="9">
         <f>$E$2*H2</f>
-        <v>40.46062847999999</v>
+        <v>373.77023999999994</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -652,7 +658,7 @@
       </c>
       <c r="H4" s="9">
         <f>$E$2*H3</f>
-        <v>186.11889100799993</v>
+        <v>1719.3431039999996</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -661,7 +667,7 @@
       </c>
       <c r="H5" s="9">
         <f>$E$2*H4</f>
-        <v>856.14689863679962</v>
+        <v>7908.9782783999972</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,7 +741,10 @@
       <c r="B10" s="15">
         <v>-0.3</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="12">
+        <f t="shared" ref="C10:C34" si="2">B10/D10</f>
+        <v>-6.4794816414686818E-2</v>
+      </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>4.6300000000000008</v>
@@ -749,7 +758,10 @@
       <c r="B11" s="15">
         <v>-0.3</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="12">
+        <f t="shared" si="2"/>
+        <v>-6.9284064665127001E-2</v>
+      </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>4.330000000000001</v>
@@ -761,12 +773,16 @@
         <v>43801</v>
       </c>
       <c r="B12" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="11"/>
+        <f>0.1+0.08</f>
+        <v>0.18</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="2"/>
+        <v>3.9911308203991122E-2</v>
+      </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,10 +791,13 @@
         <v>43802</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,10 +806,13 @@
         <v>43803</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,10 +821,13 @@
         <v>43804</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,10 +836,13 @@
         <v>43805</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,10 +851,13 @@
         <v>43806</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,10 +866,13 @@
         <v>43807</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,10 +881,13 @@
         <v>43808</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,10 +896,13 @@
         <v>43809</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,10 +911,13 @@
         <v>43810</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,10 +926,13 @@
         <v>43811</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,10 +941,13 @@
         <v>43812</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +956,13 @@
         <v>43813</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,10 +971,13 @@
         <v>43814</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,10 +986,13 @@
         <v>43815</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,10 +1001,13 @@
         <v>43816</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,10 +1016,13 @@
         <v>43817</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,10 +1031,13 @@
         <v>43818</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,10 +1046,13 @@
         <v>43819</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,10 +1061,13 @@
         <v>43820</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,10 +1076,13 @@
         <v>43821</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,10 +1091,13 @@
         <v>43822</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1106,13 @@
         <v>43823</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>4.4300000000000006</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
   </sheetData>
